--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_100ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_100ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2227,28 +2227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2400.926959862057</v>
+        <v>2504.901209707272</v>
       </c>
       <c r="AB2" t="n">
-        <v>3285.054187905364</v>
+        <v>3427.316343563765</v>
       </c>
       <c r="AC2" t="n">
-        <v>2971.533226814062</v>
+        <v>3100.218082002609</v>
       </c>
       <c r="AD2" t="n">
-        <v>2400926.959862057</v>
+        <v>2504901.209707272</v>
       </c>
       <c r="AE2" t="n">
-        <v>3285054.187905364</v>
+        <v>3427316.343563765</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.053723219871459e-06</v>
+        <v>1.781371384935864e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.22777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>2971533.226814062</v>
+        <v>3100218.082002609</v>
       </c>
     </row>
     <row r="3">
@@ -2333,28 +2333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>797.257539148518</v>
+        <v>849.2447088254015</v>
       </c>
       <c r="AB3" t="n">
-        <v>1090.842937583278</v>
+        <v>1161.974076647249</v>
       </c>
       <c r="AC3" t="n">
-        <v>986.7344186280079</v>
+        <v>1051.076901612894</v>
       </c>
       <c r="AD3" t="n">
-        <v>797257.539148518</v>
+        <v>849244.7088254015</v>
       </c>
       <c r="AE3" t="n">
-        <v>1090842.937583278</v>
+        <v>1161974.076647249</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.981110525523247e-06</v>
+        <v>3.349165638575251e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.22777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>986734.4186280079</v>
+        <v>1051076.901612894</v>
       </c>
     </row>
     <row r="4">
@@ -2439,28 +2439,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>582.3456249095711</v>
+        <v>634.3327050779036</v>
       </c>
       <c r="AB4" t="n">
-        <v>796.7909752770477</v>
+        <v>867.9219918714697</v>
       </c>
       <c r="AC4" t="n">
-        <v>720.7463628997631</v>
+        <v>785.0887351034221</v>
       </c>
       <c r="AD4" t="n">
-        <v>582345.6249095711</v>
+        <v>634332.7050779036</v>
       </c>
       <c r="AE4" t="n">
-        <v>796790.9752770477</v>
+        <v>867921.9918714697</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.3287531162686e-06</v>
+        <v>3.936872686934958e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.701388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>720746.362899763</v>
+        <v>785088.7351034221</v>
       </c>
     </row>
     <row r="5">
@@ -2545,28 +2545,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>503.2296347038523</v>
+        <v>544.8023201761549</v>
       </c>
       <c r="AB5" t="n">
-        <v>688.540987126432</v>
+        <v>745.4225694470784</v>
       </c>
       <c r="AC5" t="n">
-        <v>622.8276016884295</v>
+        <v>674.2804856261954</v>
       </c>
       <c r="AD5" t="n">
-        <v>503229.6347038523</v>
+        <v>544802.320176155</v>
       </c>
       <c r="AE5" t="n">
-        <v>688540.987126432</v>
+        <v>745422.5694470784</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.486745951256942e-06</v>
+        <v>4.203967413487019e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.14722222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>622827.6016884295</v>
+        <v>674280.4856261954</v>
       </c>
     </row>
     <row r="6">
@@ -2651,28 +2651,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>503.8864320012922</v>
+        <v>545.4591174735949</v>
       </c>
       <c r="AB6" t="n">
-        <v>689.4396461646411</v>
+        <v>746.3212284852876</v>
       </c>
       <c r="AC6" t="n">
-        <v>623.6404939693078</v>
+        <v>675.0933779070738</v>
       </c>
       <c r="AD6" t="n">
-        <v>503886.4320012922</v>
+        <v>545459.117473595</v>
       </c>
       <c r="AE6" t="n">
-        <v>689439.6461646411</v>
+        <v>746321.2284852876</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.490247177517072e-06</v>
+        <v>4.209886410197315e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.136111111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>623640.4939693079</v>
+        <v>675093.3779070738</v>
       </c>
     </row>
   </sheetData>
@@ -2948,28 +2948,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1430.359432247875</v>
+        <v>1500.993496663447</v>
       </c>
       <c r="AB2" t="n">
-        <v>1957.080878206107</v>
+        <v>2053.725521294487</v>
       </c>
       <c r="AC2" t="n">
-        <v>1770.29982597038</v>
+        <v>1857.720839964014</v>
       </c>
       <c r="AD2" t="n">
-        <v>1430359.432247875</v>
+        <v>1500993.496663447</v>
       </c>
       <c r="AE2" t="n">
-        <v>1957080.878206107</v>
+        <v>2053725.521294487</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.397023850494256e-06</v>
+        <v>2.419353341525359e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.00416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1770299.825970379</v>
+        <v>1857720.839964014</v>
       </c>
     </row>
     <row r="3">
@@ -3054,28 +3054,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>601.4148070364082</v>
+        <v>651.6970540551168</v>
       </c>
       <c r="AB3" t="n">
-        <v>822.8822715359278</v>
+        <v>891.6806602031037</v>
       </c>
       <c r="AC3" t="n">
-        <v>744.3475424630599</v>
+        <v>806.5799094749854</v>
       </c>
       <c r="AD3" t="n">
-        <v>601414.8070364082</v>
+        <v>651697.0540551168</v>
       </c>
       <c r="AE3" t="n">
-        <v>822882.2715359278</v>
+        <v>891680.6602031037</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.261316341774433e-06</v>
+        <v>3.91612730575953e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.269444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>744347.5424630599</v>
+        <v>806579.9094749853</v>
       </c>
     </row>
     <row r="4">
@@ -3160,28 +3160,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>473.3444336277778</v>
+        <v>513.6214536571978</v>
       </c>
       <c r="AB4" t="n">
-        <v>647.6507365721266</v>
+        <v>702.7595322730955</v>
       </c>
       <c r="AC4" t="n">
-        <v>585.8398592571998</v>
+        <v>635.6891488421487</v>
       </c>
       <c r="AD4" t="n">
-        <v>473344.4336277778</v>
+        <v>513621.4536571978</v>
       </c>
       <c r="AE4" t="n">
-        <v>647650.7365721265</v>
+        <v>702759.5322730955</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.521192659215408e-06</v>
+        <v>4.366178775361634e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.31388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>585839.8592571998</v>
+        <v>635689.1488421487</v>
       </c>
     </row>
     <row r="5">
@@ -3266,28 +3266,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>473.8907947834599</v>
+        <v>514.1678148128798</v>
       </c>
       <c r="AB5" t="n">
-        <v>648.3982920090838</v>
+        <v>703.5070877100528</v>
       </c>
       <c r="AC5" t="n">
-        <v>586.5160690524546</v>
+        <v>636.3653586374035</v>
       </c>
       <c r="AD5" t="n">
-        <v>473890.7947834599</v>
+        <v>514167.8148128798</v>
       </c>
       <c r="AE5" t="n">
-        <v>648398.2920090838</v>
+        <v>703507.0877100528</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.526474698187786e-06</v>
+        <v>4.375326162955172e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.297222222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>586516.0690524545</v>
+        <v>636365.3586374035</v>
       </c>
     </row>
   </sheetData>
@@ -3563,28 +3563,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>434.8990226773828</v>
+        <v>480.3052585403674</v>
       </c>
       <c r="AB2" t="n">
-        <v>595.0480292179691</v>
+        <v>657.1748443074533</v>
       </c>
       <c r="AC2" t="n">
-        <v>538.2574804645596</v>
+        <v>594.4549995174362</v>
       </c>
       <c r="AD2" t="n">
-        <v>434899.0226773828</v>
+        <v>480305.2585403674</v>
       </c>
       <c r="AE2" t="n">
-        <v>595048.029217969</v>
+        <v>657174.8443074534</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.47092733839931e-06</v>
+        <v>4.675526242412462e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.465277777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>538257.4804645596</v>
+        <v>594454.9995174363</v>
       </c>
     </row>
     <row r="3">
@@ -3669,28 +3669,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>432.5013283058694</v>
+        <v>477.907564168854</v>
       </c>
       <c r="AB3" t="n">
-        <v>591.7673980000543</v>
+        <v>653.8942130895387</v>
       </c>
       <c r="AC3" t="n">
-        <v>535.2899480856878</v>
+        <v>591.4874671385643</v>
       </c>
       <c r="AD3" t="n">
-        <v>432501.3283058694</v>
+        <v>477907.564168854</v>
       </c>
       <c r="AE3" t="n">
-        <v>591767.3980000543</v>
+        <v>653894.2130895386</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.487430499250065e-06</v>
+        <v>4.706753774052646e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.402777777777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>535289.9480856878</v>
+        <v>591487.4671385643</v>
       </c>
     </row>
   </sheetData>
@@ -3966,28 +3966,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>658.7554716416865</v>
+        <v>715.6499154609495</v>
       </c>
       <c r="AB2" t="n">
-        <v>901.3382985404551</v>
+        <v>979.1837865796848</v>
       </c>
       <c r="AC2" t="n">
-        <v>815.3158363640006</v>
+        <v>885.731860281595</v>
       </c>
       <c r="AD2" t="n">
-        <v>658755.4716416865</v>
+        <v>715649.9154609495</v>
       </c>
       <c r="AE2" t="n">
-        <v>901338.2985404551</v>
+        <v>979183.7865796848</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.062757102636868e-06</v>
+        <v>3.757895462184263e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.84722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>815315.8363640006</v>
+        <v>885731.860281595</v>
       </c>
     </row>
     <row r="3">
@@ -4072,28 +4072,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>432.7405841078023</v>
+        <v>480.138397148093</v>
       </c>
       <c r="AB3" t="n">
-        <v>592.09475834348</v>
+        <v>656.9465371891384</v>
       </c>
       <c r="AC3" t="n">
-        <v>535.58606561739</v>
+        <v>594.2484817100623</v>
       </c>
       <c r="AD3" t="n">
-        <v>432740.5841078023</v>
+        <v>480138.397148093</v>
       </c>
       <c r="AE3" t="n">
-        <v>592094.7583434799</v>
+        <v>656946.5371891385</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.543487124057394e-06</v>
+        <v>4.633681158775784e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.797222222222224</v>
       </c>
       <c r="AH3" t="n">
-        <v>535586.06561739</v>
+        <v>594248.4817100622</v>
       </c>
     </row>
   </sheetData>
@@ -4369,28 +4369,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>440.4043880065075</v>
+        <v>484.3323864958235</v>
       </c>
       <c r="AB2" t="n">
-        <v>602.5807129408543</v>
+        <v>662.6849384404549</v>
       </c>
       <c r="AC2" t="n">
-        <v>545.0712554251206</v>
+        <v>599.4392179998497</v>
       </c>
       <c r="AD2" t="n">
-        <v>440404.3880065075</v>
+        <v>484332.3864958235</v>
       </c>
       <c r="AE2" t="n">
-        <v>602580.7129408543</v>
+        <v>662684.9384404549</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.377901715263632e-06</v>
+        <v>4.659921200871988e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.21527777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>545071.2554251206</v>
+        <v>599439.2179998497</v>
       </c>
     </row>
   </sheetData>
@@ -4666,28 +4666,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1612.654660370677</v>
+        <v>1704.065337071679</v>
       </c>
       <c r="AB2" t="n">
-        <v>2206.505251621593</v>
+        <v>2331.577372238341</v>
       </c>
       <c r="AC2" t="n">
-        <v>1995.919487256398</v>
+        <v>2109.054900221308</v>
       </c>
       <c r="AD2" t="n">
-        <v>1612654.660370677</v>
+        <v>1704065.337071679</v>
       </c>
       <c r="AE2" t="n">
-        <v>2206505.251621593</v>
+        <v>2331577.372238341</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.305506944341025e-06</v>
+        <v>2.246100163724426e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.91111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1995919.487256398</v>
+        <v>2109054.900221308</v>
       </c>
     </row>
     <row r="3">
@@ -4772,28 +4772,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>645.0289539849728</v>
+        <v>695.736894234461</v>
       </c>
       <c r="AB3" t="n">
-        <v>882.5570715113195</v>
+        <v>951.937912437108</v>
       </c>
       <c r="AC3" t="n">
-        <v>798.3270632829079</v>
+        <v>861.0862941273612</v>
       </c>
       <c r="AD3" t="n">
-        <v>645028.9539849728</v>
+        <v>695736.894234461</v>
       </c>
       <c r="AE3" t="n">
-        <v>882557.0715113195</v>
+        <v>951937.912437108</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.188058952424012e-06</v>
+        <v>3.764514308086648e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.493055555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>798327.0632829079</v>
+        <v>861086.2941273612</v>
       </c>
     </row>
     <row r="4">
@@ -4878,28 +4878,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>486.2630385254776</v>
+        <v>526.8806131395213</v>
       </c>
       <c r="AB4" t="n">
-        <v>665.3265417217838</v>
+        <v>720.9012992296431</v>
       </c>
       <c r="AC4" t="n">
-        <v>601.8287103715222</v>
+        <v>652.0994910224933</v>
       </c>
       <c r="AD4" t="n">
-        <v>486263.0385254776</v>
+        <v>526880.6131395213</v>
       </c>
       <c r="AE4" t="n">
-        <v>665326.5417217838</v>
+        <v>720901.2992296431</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.501984840403369e-06</v>
+        <v>4.304617898836742e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.302777777777777</v>
       </c>
       <c r="AH4" t="n">
-        <v>601828.7103715222</v>
+        <v>652099.4910224933</v>
       </c>
     </row>
     <row r="5">
@@ -4984,28 +4984,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>479.5152099402481</v>
+        <v>520.1327845542919</v>
       </c>
       <c r="AB5" t="n">
-        <v>656.0938649582857</v>
+        <v>711.6686224661451</v>
       </c>
       <c r="AC5" t="n">
-        <v>593.477187320189</v>
+        <v>643.7479679711603</v>
       </c>
       <c r="AD5" t="n">
-        <v>479515.2099402481</v>
+        <v>520132.7845542919</v>
       </c>
       <c r="AE5" t="n">
-        <v>656093.8649582857</v>
+        <v>711668.6224661451</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.521876285425406e-06</v>
+        <v>4.338840756182984e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.236111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>593477.1873201891</v>
+        <v>643747.9679711603</v>
       </c>
     </row>
   </sheetData>
@@ -5281,28 +5281,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>449.0107725261315</v>
+        <v>500.6302845690876</v>
       </c>
       <c r="AB2" t="n">
-        <v>614.3563479274919</v>
+        <v>684.9844415968123</v>
       </c>
       <c r="AC2" t="n">
-        <v>555.7230403358411</v>
+        <v>619.6104878725137</v>
       </c>
       <c r="AD2" t="n">
-        <v>449010.7725261315</v>
+        <v>500630.2845690876</v>
       </c>
       <c r="AE2" t="n">
-        <v>614356.3479274919</v>
+        <v>684984.4415968123</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.27312939171184e-06</v>
+        <v>4.556852422463523e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.93611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>555723.0403358411</v>
+        <v>619610.4878725137</v>
       </c>
     </row>
   </sheetData>
@@ -5578,28 +5578,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>981.2258636155415</v>
+        <v>1049.840284971174</v>
       </c>
       <c r="AB2" t="n">
-        <v>1342.556515228729</v>
+        <v>1436.437793582137</v>
       </c>
       <c r="AC2" t="n">
-        <v>1214.424805705202</v>
+        <v>1299.346186615763</v>
       </c>
       <c r="AD2" t="n">
-        <v>981225.8636155415</v>
+        <v>1049840.284971175</v>
       </c>
       <c r="AE2" t="n">
-        <v>1342556.515228729</v>
+        <v>1436437.793582137</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.697169264323959e-06</v>
+        <v>3.00581287850432e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.72361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1214424.805705202</v>
+        <v>1299346.186615763</v>
       </c>
     </row>
     <row r="3">
@@ -5684,28 +5684,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>465.1924050395971</v>
+        <v>514.1783229066002</v>
       </c>
       <c r="AB3" t="n">
-        <v>636.4967714156585</v>
+        <v>703.5214653474653</v>
       </c>
       <c r="AC3" t="n">
-        <v>575.7504128805767</v>
+        <v>636.3783640932805</v>
       </c>
       <c r="AD3" t="n">
-        <v>465192.4050395971</v>
+        <v>514178.3229066002</v>
       </c>
       <c r="AE3" t="n">
-        <v>636496.7714156585</v>
+        <v>703521.4653474654</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.507270214129532e-06</v>
+        <v>4.440561856700153e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.613888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>575750.4128805767</v>
+        <v>636378.3640932805</v>
       </c>
     </row>
     <row r="4">
@@ -5790,28 +5790,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>452.4982667436753</v>
+        <v>491.6700223749145</v>
       </c>
       <c r="AB4" t="n">
-        <v>619.1280913733215</v>
+        <v>672.7246155638755</v>
       </c>
       <c r="AC4" t="n">
-        <v>560.0393752843847</v>
+        <v>608.5207224293865</v>
       </c>
       <c r="AD4" t="n">
-        <v>452498.2667436753</v>
+        <v>491670.0223749145</v>
       </c>
       <c r="AE4" t="n">
-        <v>619128.0913733215</v>
+        <v>672724.6155638755</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.544121255416273e-06</v>
+        <v>4.505827789105606e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.488888888888887</v>
       </c>
       <c r="AH4" t="n">
-        <v>560039.3752843847</v>
+        <v>608520.7224293866</v>
       </c>
     </row>
   </sheetData>
@@ -6087,28 +6087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1264.735796601863</v>
+        <v>1334.665887112622</v>
       </c>
       <c r="AB2" t="n">
-        <v>1730.467313116117</v>
+        <v>1826.148748050795</v>
       </c>
       <c r="AC2" t="n">
-        <v>1565.313941478441</v>
+        <v>1651.863674552692</v>
       </c>
       <c r="AD2" t="n">
-        <v>1264735.796601863</v>
+        <v>1334665.887112622</v>
       </c>
       <c r="AE2" t="n">
-        <v>1730467.313116117</v>
+        <v>1826148.748050795</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.490581198133287e-06</v>
+        <v>2.599443453180201e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.19444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>1565313.941478441</v>
+        <v>1651863.674552692</v>
       </c>
     </row>
     <row r="3">
@@ -6193,28 +6193,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>557.966661916361</v>
+        <v>597.9755182002145</v>
       </c>
       <c r="AB3" t="n">
-        <v>763.4346025857969</v>
+        <v>818.1764848195326</v>
       </c>
       <c r="AC3" t="n">
-        <v>690.5734756022023</v>
+        <v>740.0908694262642</v>
       </c>
       <c r="AD3" t="n">
-        <v>557966.661916361</v>
+        <v>597975.5182002145</v>
       </c>
       <c r="AE3" t="n">
-        <v>763434.602585797</v>
+        <v>818176.4848195326</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.340992507207286e-06</v>
+        <v>4.08248651896637e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.038888888888888</v>
       </c>
       <c r="AH3" t="n">
-        <v>690573.4756022022</v>
+        <v>740090.8694262642</v>
       </c>
     </row>
     <row r="4">
@@ -6299,28 +6299,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>465.9926763578987</v>
+        <v>505.9161917871807</v>
       </c>
       <c r="AB4" t="n">
-        <v>637.5917379388377</v>
+        <v>692.2168530503756</v>
       </c>
       <c r="AC4" t="n">
-        <v>576.7408773355788</v>
+        <v>626.152648127702</v>
       </c>
       <c r="AD4" t="n">
-        <v>465992.6763578987</v>
+        <v>505916.1917871807</v>
       </c>
       <c r="AE4" t="n">
-        <v>637591.7379388377</v>
+        <v>692216.8530503756</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.531123878351025e-06</v>
+        <v>4.414059028120999e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.359722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>576740.8773355788</v>
+        <v>626152.6481277021</v>
       </c>
     </row>
     <row r="5">
@@ -6405,28 +6405,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>466.7948929640389</v>
+        <v>506.7184083933209</v>
       </c>
       <c r="AB5" t="n">
-        <v>638.6893660906576</v>
+        <v>693.3144812021956</v>
       </c>
       <c r="AC5" t="n">
-        <v>577.7337493971197</v>
+        <v>627.1455201892431</v>
       </c>
       <c r="AD5" t="n">
-        <v>466794.8929640389</v>
+        <v>506718.4083933209</v>
       </c>
       <c r="AE5" t="n">
-        <v>638689.3660906575</v>
+        <v>693314.4812021955</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.535846692858603e-06</v>
+        <v>4.422295204229808e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.344444444444443</v>
       </c>
       <c r="AH5" t="n">
-        <v>577733.7493971197</v>
+        <v>627145.5201892431</v>
       </c>
     </row>
   </sheetData>
@@ -6702,28 +6702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2086.979875185528</v>
+        <v>2190.183446714878</v>
       </c>
       <c r="AB2" t="n">
-        <v>2855.497936282883</v>
+        <v>2996.70561586958</v>
       </c>
       <c r="AC2" t="n">
-        <v>2582.973220960569</v>
+        <v>2710.704237793734</v>
       </c>
       <c r="AD2" t="n">
-        <v>2086979.875185528</v>
+        <v>2190183.446714878</v>
       </c>
       <c r="AE2" t="n">
-        <v>2855497.936282883</v>
+        <v>2996705.615869579</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.135230885616384e-06</v>
+        <v>1.929817266555693e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.99027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>2582973.220960569</v>
+        <v>2710704.237793734</v>
       </c>
     </row>
     <row r="3">
@@ -6808,28 +6808,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>737.9890170107383</v>
+        <v>799.842887244691</v>
       </c>
       <c r="AB3" t="n">
-        <v>1009.74913085171</v>
+        <v>1094.380324905971</v>
       </c>
       <c r="AC3" t="n">
-        <v>913.3800909950285</v>
+        <v>989.9342026693768</v>
       </c>
       <c r="AD3" t="n">
-        <v>737989.0170107383</v>
+        <v>799842.887244691</v>
       </c>
       <c r="AE3" t="n">
-        <v>1009749.13085171</v>
+        <v>1094380.324905971</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.047091859930788e-06</v>
+        <v>3.479920488046866e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.976388888888888</v>
       </c>
       <c r="AH3" t="n">
-        <v>913380.0909950285</v>
+        <v>989934.2026693767</v>
       </c>
     </row>
     <row r="4">
@@ -6914,28 +6914,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>546.5977638187642</v>
+        <v>588.0328059687331</v>
       </c>
       <c r="AB4" t="n">
-        <v>747.8791746482792</v>
+        <v>804.5724273029139</v>
       </c>
       <c r="AC4" t="n">
-        <v>676.502635874861</v>
+        <v>727.785164065617</v>
       </c>
       <c r="AD4" t="n">
-        <v>546597.7638187641</v>
+        <v>588032.8059687332</v>
       </c>
       <c r="AE4" t="n">
-        <v>747879.1746482792</v>
+        <v>804572.4273029139</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.391925593968408e-06</v>
+        <v>4.066114981579652e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.538888888888888</v>
       </c>
       <c r="AH4" t="n">
-        <v>676502.6358748609</v>
+        <v>727785.164065617</v>
       </c>
     </row>
     <row r="5">
@@ -7020,28 +7020,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>494.4492748660361</v>
+        <v>535.713724815413</v>
       </c>
       <c r="AB5" t="n">
-        <v>676.5273114341946</v>
+        <v>732.9871523139823</v>
       </c>
       <c r="AC5" t="n">
-        <v>611.9604943429595</v>
+        <v>663.0318872510646</v>
       </c>
       <c r="AD5" t="n">
-        <v>494449.2748660361</v>
+        <v>535713.724815413</v>
       </c>
       <c r="AE5" t="n">
-        <v>676527.3114341947</v>
+        <v>732987.1523139823</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.500743062278786e-06</v>
+        <v>4.251097465679549e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>611960.4943429595</v>
+        <v>663031.8872510646</v>
       </c>
     </row>
     <row r="6">
@@ -7126,28 +7126,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>496.6079300457067</v>
+        <v>537.8723799950835</v>
       </c>
       <c r="AB6" t="n">
-        <v>679.4808786841653</v>
+        <v>735.9407195639527</v>
       </c>
       <c r="AC6" t="n">
-        <v>614.6321772799506</v>
+        <v>665.7035701880556</v>
       </c>
       <c r="AD6" t="n">
-        <v>496607.9300457067</v>
+        <v>537872.3799950836</v>
       </c>
       <c r="AE6" t="n">
-        <v>679480.8786841653</v>
+        <v>735940.7195639528</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.500596011645934e-06</v>
+        <v>4.250847489349685e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.168055555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>614632.1772799506</v>
+        <v>665703.5701880555</v>
       </c>
     </row>
   </sheetData>
@@ -7423,28 +7423,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>760.439610501308</v>
+        <v>817.9178964676397</v>
       </c>
       <c r="AB2" t="n">
-        <v>1040.46702331579</v>
+        <v>1119.111349937937</v>
       </c>
       <c r="AC2" t="n">
-        <v>941.1663109151696</v>
+        <v>1012.304933382504</v>
       </c>
       <c r="AD2" t="n">
-        <v>760439.610501308</v>
+        <v>817917.8964676397</v>
       </c>
       <c r="AE2" t="n">
-        <v>1040467.02331579</v>
+        <v>1119111.349937937</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.931148484477473e-06</v>
+        <v>3.482317704379148e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.44166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>941166.3109151695</v>
+        <v>1012304.933382504</v>
       </c>
     </row>
     <row r="3">
@@ -7529,28 +7529,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>438.2401375984152</v>
+        <v>486.1955285496135</v>
       </c>
       <c r="AB3" t="n">
-        <v>599.6194900525131</v>
+        <v>665.2341715944768</v>
       </c>
       <c r="AC3" t="n">
-        <v>542.3926474931403</v>
+        <v>601.745155919523</v>
       </c>
       <c r="AD3" t="n">
-        <v>438240.1375984153</v>
+        <v>486195.5285496135</v>
       </c>
       <c r="AE3" t="n">
-        <v>599619.4900525131</v>
+        <v>665234.1715944768</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.54728968889145e-06</v>
+        <v>4.593366099556711e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.673611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>542392.6474931403</v>
+        <v>601745.155919523</v>
       </c>
     </row>
     <row r="4">
@@ -7635,28 +7635,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>440.6817457888367</v>
+        <v>488.6371367400351</v>
       </c>
       <c r="AB4" t="n">
-        <v>602.960206094799</v>
+        <v>668.5748876367627</v>
       </c>
       <c r="AC4" t="n">
-        <v>545.4145302850749</v>
+        <v>604.7670387114575</v>
       </c>
       <c r="AD4" t="n">
-        <v>440681.7457888367</v>
+        <v>488637.1367400351</v>
       </c>
       <c r="AE4" t="n">
-        <v>602960.206094799</v>
+        <v>668574.8876367627</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.54728968889145e-06</v>
+        <v>4.593366099556711e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.673611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>545414.5302850748</v>
+        <v>604767.0387114575</v>
       </c>
     </row>
   </sheetData>
@@ -7932,28 +7932,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>482.1349789457626</v>
+        <v>528.3935814431436</v>
       </c>
       <c r="AB2" t="n">
-        <v>659.6783484876822</v>
+        <v>722.9714092101099</v>
       </c>
       <c r="AC2" t="n">
-        <v>596.7195727723941</v>
+        <v>653.972032611842</v>
       </c>
       <c r="AD2" t="n">
-        <v>482134.9789457626</v>
+        <v>528393.5814431437</v>
       </c>
       <c r="AE2" t="n">
-        <v>659678.3484876822</v>
+        <v>722971.4092101099</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.37353852267081e-06</v>
+        <v>4.428264198951858e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.697222222222221</v>
       </c>
       <c r="AH2" t="n">
-        <v>596719.5727723942</v>
+        <v>653972.032611842</v>
       </c>
     </row>
     <row r="3">
@@ -8038,28 +8038,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>434.6205466821366</v>
+        <v>471.6275181885926</v>
       </c>
       <c r="AB3" t="n">
-        <v>594.6670060757795</v>
+        <v>645.3015771232701</v>
       </c>
       <c r="AC3" t="n">
-        <v>537.9128216362913</v>
+        <v>583.7149002890761</v>
       </c>
       <c r="AD3" t="n">
-        <v>434620.5466821367</v>
+        <v>471627.5181885926</v>
       </c>
       <c r="AE3" t="n">
-        <v>594667.0060757794</v>
+        <v>645301.5771232701</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.516053577442639e-06</v>
+        <v>4.694151737253792e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.147222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>537912.8216362912</v>
+        <v>583714.9002890761</v>
       </c>
     </row>
   </sheetData>
@@ -13748,28 +13748,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>429.6558009847276</v>
+        <v>474.4899142171911</v>
       </c>
       <c r="AB2" t="n">
-        <v>587.8740219834626</v>
+        <v>649.2180336495987</v>
       </c>
       <c r="AC2" t="n">
-        <v>531.768150411732</v>
+        <v>587.2575757013133</v>
       </c>
       <c r="AD2" t="n">
-        <v>429655.8009847276</v>
+        <v>474489.9142171912</v>
       </c>
       <c r="AE2" t="n">
-        <v>587874.0219834626</v>
+        <v>649218.0336495987</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.442802316920414e-06</v>
+        <v>4.697599443360903e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.747222222222224</v>
       </c>
       <c r="AH2" t="n">
-        <v>531768.150411732</v>
+        <v>587257.5757013133</v>
       </c>
     </row>
     <row r="3">
@@ -13854,28 +13854,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>433.0708217972829</v>
+        <v>477.9049350297463</v>
       </c>
       <c r="AB3" t="n">
-        <v>592.5466041192858</v>
+        <v>653.890615785422</v>
       </c>
       <c r="AC3" t="n">
-        <v>535.9947878665224</v>
+        <v>591.4842131561038</v>
       </c>
       <c r="AD3" t="n">
-        <v>433070.8217972828</v>
+        <v>477904.9350297463</v>
       </c>
       <c r="AE3" t="n">
-        <v>592546.6041192858</v>
+        <v>653890.615785422</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.442288042748431e-06</v>
+        <v>4.696610475057038e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.74861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>535994.7878665224</v>
+        <v>591484.2131561039</v>
       </c>
     </row>
   </sheetData>
@@ -14151,28 +14151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>486.8989592145649</v>
+        <v>537.2261083691602</v>
       </c>
       <c r="AB2" t="n">
-        <v>666.1966364634339</v>
+        <v>735.0564622138725</v>
       </c>
       <c r="AC2" t="n">
-        <v>602.6157644922148</v>
+        <v>664.9037051184039</v>
       </c>
       <c r="AD2" t="n">
-        <v>486898.9592145649</v>
+        <v>537226.1083691602</v>
       </c>
       <c r="AE2" t="n">
-        <v>666196.636463434</v>
+        <v>735056.4622138725</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.096025725471247e-06</v>
+        <v>4.323261238915843e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.19166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>602615.7644922148</v>
+        <v>664903.7051184039</v>
       </c>
     </row>
   </sheetData>
@@ -14448,28 +14448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1113.147877249438</v>
+        <v>1182.348866840157</v>
       </c>
       <c r="AB2" t="n">
-        <v>1523.058034271113</v>
+        <v>1617.741881161331</v>
       </c>
       <c r="AC2" t="n">
-        <v>1377.699513105654</v>
+        <v>1463.346866538283</v>
       </c>
       <c r="AD2" t="n">
-        <v>1113147.877249438</v>
+        <v>1182348.866840157</v>
       </c>
       <c r="AE2" t="n">
-        <v>1523058.034271113</v>
+        <v>1617741.881161331</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.592397886275737e-06</v>
+        <v>2.797780269631784e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.41944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>1377699.513105654</v>
+        <v>1463346.866538283</v>
       </c>
     </row>
     <row r="3">
@@ -14554,28 +14554,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>503.2500740815178</v>
+        <v>552.7158630778831</v>
       </c>
       <c r="AB3" t="n">
-        <v>688.5689531846758</v>
+        <v>756.2502279660958</v>
       </c>
       <c r="AC3" t="n">
-        <v>622.8528987053249</v>
+        <v>684.0747676128721</v>
       </c>
       <c r="AD3" t="n">
-        <v>503250.0740815178</v>
+        <v>552715.8630778831</v>
       </c>
       <c r="AE3" t="n">
-        <v>688568.9531846758</v>
+        <v>756250.2279660959</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.428372155880151e-06</v>
+        <v>4.266554084001238e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>622852.898705325</v>
+        <v>684074.7676128721</v>
       </c>
     </row>
     <row r="4">
@@ -14660,28 +14660,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>458.3397939509118</v>
+        <v>497.8954464856408</v>
       </c>
       <c r="AB4" t="n">
-        <v>627.1207266082545</v>
+        <v>681.2425154784996</v>
       </c>
       <c r="AC4" t="n">
-        <v>567.2692046302299</v>
+        <v>616.2256859311063</v>
       </c>
       <c r="AD4" t="n">
-        <v>458339.7939509118</v>
+        <v>497895.4464856408</v>
       </c>
       <c r="AE4" t="n">
-        <v>627120.7266082545</v>
+        <v>681242.5154784996</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.539927713668335e-06</v>
+        <v>4.462552798416451e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.413888888888888</v>
       </c>
       <c r="AH4" t="n">
-        <v>567269.2046302299</v>
+        <v>616225.6859311063</v>
       </c>
     </row>
   </sheetData>
@@ -14957,28 +14957,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1832.965752121494</v>
+        <v>1925.201572218662</v>
       </c>
       <c r="AB2" t="n">
-        <v>2507.944606794464</v>
+        <v>2634.145725008605</v>
       </c>
       <c r="AC2" t="n">
-        <v>2268.589893444363</v>
+        <v>2382.746554060528</v>
       </c>
       <c r="AD2" t="n">
-        <v>1832965.752121493</v>
+        <v>1925201.572218662</v>
       </c>
       <c r="AE2" t="n">
-        <v>2507944.606794463</v>
+        <v>2634145.725008606</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.218365592117915e-06</v>
+        <v>2.083269384941427e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.90138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>2268589.893444363</v>
+        <v>2382746.554060528</v>
       </c>
     </row>
     <row r="3">
@@ -15063,28 +15063,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>693.1553693590643</v>
+        <v>744.4449032211421</v>
       </c>
       <c r="AB3" t="n">
-        <v>948.4057562137507</v>
+        <v>1018.582359178384</v>
       </c>
       <c r="AC3" t="n">
-        <v>857.8912419365485</v>
+        <v>921.3702884077179</v>
       </c>
       <c r="AD3" t="n">
-        <v>693155.3693590643</v>
+        <v>744444.9032211421</v>
       </c>
       <c r="AE3" t="n">
-        <v>948405.7562137507</v>
+        <v>1018582.359178384</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.111566800213122e-06</v>
+        <v>3.610543910301918e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.752777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>857891.2419365485</v>
+        <v>921370.2884077179</v>
       </c>
     </row>
     <row r="4">
@@ -15169,28 +15169,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>511.7153783682373</v>
+        <v>552.6617541118791</v>
       </c>
       <c r="AB4" t="n">
-        <v>700.1515559726329</v>
+        <v>756.1761936916898</v>
       </c>
       <c r="AC4" t="n">
-        <v>633.3300741394846</v>
+        <v>684.0077990657077</v>
       </c>
       <c r="AD4" t="n">
-        <v>511715.3783682373</v>
+        <v>552661.754111879</v>
       </c>
       <c r="AE4" t="n">
-        <v>700151.5559726328</v>
+        <v>756176.1936916899</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.455858500943048e-06</v>
+        <v>4.199244349858205e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.384722222222221</v>
       </c>
       <c r="AH4" t="n">
-        <v>633330.0741394847</v>
+        <v>684007.7990657077</v>
       </c>
     </row>
     <row r="5">
@@ -15275,28 +15275,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>487.8771142901629</v>
+        <v>528.8234900338045</v>
       </c>
       <c r="AB5" t="n">
-        <v>667.5349913910234</v>
+        <v>723.5596291100806</v>
       </c>
       <c r="AC5" t="n">
-        <v>603.826388703908</v>
+        <v>654.5041136301313</v>
       </c>
       <c r="AD5" t="n">
-        <v>487877.1142901629</v>
+        <v>528823.4900338046</v>
       </c>
       <c r="AE5" t="n">
-        <v>667534.9913910234</v>
+        <v>723559.6291100805</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.509830154287446e-06</v>
+        <v>4.291529862346786e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.205555555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>603826.3887039081</v>
+        <v>654504.1136301314</v>
       </c>
     </row>
   </sheetData>
@@ -15572,28 +15572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>552.0227497859956</v>
+        <v>617.040836665402</v>
       </c>
       <c r="AB2" t="n">
-        <v>755.3018797821352</v>
+        <v>844.2624946460908</v>
       </c>
       <c r="AC2" t="n">
-        <v>683.2169284485734</v>
+        <v>763.6872670869204</v>
       </c>
       <c r="AD2" t="n">
-        <v>552022.7497859957</v>
+        <v>617040.8366654021</v>
       </c>
       <c r="AE2" t="n">
-        <v>755301.8797821351</v>
+        <v>844262.4946460908</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.78005743612903e-06</v>
+        <v>3.815482963100371e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.86527777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>683216.9284485735</v>
+        <v>763687.2670869204</v>
       </c>
     </row>
   </sheetData>
@@ -15869,28 +15869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>572.8372298997238</v>
+        <v>619.6431984291003</v>
       </c>
       <c r="AB2" t="n">
-        <v>783.7811697437922</v>
+        <v>847.8231608192809</v>
       </c>
       <c r="AC2" t="n">
-        <v>708.9781949472246</v>
+        <v>766.9081082779676</v>
       </c>
       <c r="AD2" t="n">
-        <v>572837.2298997238</v>
+        <v>619643.1984291002</v>
       </c>
       <c r="AE2" t="n">
-        <v>783781.1697437923</v>
+        <v>847823.1608192809</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.208629046536692e-06</v>
+        <v>4.069250013314986e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.26805555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>708978.1949472246</v>
+        <v>766908.1082779675</v>
       </c>
     </row>
     <row r="3">
@@ -15975,28 +15975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>428.2945305790391</v>
+        <v>475.1004095998645</v>
       </c>
       <c r="AB3" t="n">
-        <v>586.0114717593877</v>
+        <v>650.053340365328</v>
       </c>
       <c r="AC3" t="n">
-        <v>530.0833593669373</v>
+        <v>588.0131619164538</v>
       </c>
       <c r="AD3" t="n">
-        <v>428294.5305790391</v>
+        <v>475100.4095998644</v>
       </c>
       <c r="AE3" t="n">
-        <v>586011.4717593878</v>
+        <v>650053.340365328</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.534575336879556e-06</v>
+        <v>4.669784063339143e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.948611111111113</v>
       </c>
       <c r="AH3" t="n">
-        <v>530083.3593669373</v>
+        <v>588013.1619164537</v>
       </c>
     </row>
   </sheetData>
@@ -16272,28 +16272,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>870.6520820590289</v>
+        <v>928.8494161584226</v>
       </c>
       <c r="AB2" t="n">
-        <v>1191.26458913215</v>
+        <v>1270.892749132117</v>
       </c>
       <c r="AC2" t="n">
-        <v>1077.571968695729</v>
+        <v>1149.600528864123</v>
       </c>
       <c r="AD2" t="n">
-        <v>870652.0820590289</v>
+        <v>928849.4161584226</v>
       </c>
       <c r="AE2" t="n">
-        <v>1191264.58913215</v>
+        <v>1270892.749132117</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.809789944027746e-06</v>
+        <v>3.233057659647253e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.06527777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1077571.968695729</v>
+        <v>1149600.528864123</v>
       </c>
     </row>
     <row r="3">
@@ -16378,28 +16378,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>443.9250126904485</v>
+        <v>482.8654105086296</v>
       </c>
       <c r="AB3" t="n">
-        <v>607.3977869524214</v>
+        <v>660.6777571763631</v>
       </c>
       <c r="AC3" t="n">
-        <v>549.4285946538297</v>
+        <v>597.6235992985063</v>
       </c>
       <c r="AD3" t="n">
-        <v>443925.0126904484</v>
+        <v>482865.4105086296</v>
       </c>
       <c r="AE3" t="n">
-        <v>607397.7869524214</v>
+        <v>660677.7571763631</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.549365297750839e-06</v>
+        <v>4.554255056135887e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.565277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>549428.5946538297</v>
+        <v>597623.5992985063</v>
       </c>
     </row>
     <row r="4">
@@ -16484,28 +16484,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>446.0266550186782</v>
+        <v>484.9670528368594</v>
       </c>
       <c r="AB4" t="n">
-        <v>610.2733467038212</v>
+        <v>663.5533169277629</v>
       </c>
       <c r="AC4" t="n">
-        <v>552.0297150184293</v>
+        <v>600.2247196631059</v>
       </c>
       <c r="AD4" t="n">
-        <v>446026.6550186782</v>
+        <v>484967.0528368594</v>
       </c>
       <c r="AE4" t="n">
-        <v>610273.3467038212</v>
+        <v>663553.3169277629</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.547793071233571e-06</v>
+        <v>4.551446388201176e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.570833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>552029.7150184293</v>
+        <v>600224.7196631059</v>
       </c>
     </row>
   </sheetData>
